--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2701781.969148465</v>
+        <v>2805961.603599537</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8825408.126173241</v>
+        <v>8825408.126173239</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>63.25786276724374</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>265.7900564756467</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>37.59617708813126</v>
+        <v>168.4243449750664</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2669997576634</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>46.94048797913361</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>80.7662475327671</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>123.368206244481</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>84.31954727926006</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.25108662428449</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>92.78057235705002</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,22 +1341,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>226.4704127055213</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>1.043911798777973</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0.4774956074566125</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>283.530480473778</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>220.204325947852</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161909023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>167.363726718209</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>40.36264995190599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>32.81060261323961</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>100.7362831624776</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>103.5531674807564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>135.3135037226529</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>124.0270735093607</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>142.3046100066265</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060384</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3907,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>154.8277789621973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2693.309871889246</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.170539913434</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4437,16 +4439,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.51949026613</v>
@@ -4471,58 +4473,58 @@
         <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1889.318611635834</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="U4" t="n">
-        <v>1600.215744761477</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W4" t="n">
         <v>1310.798574724517</v>
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1918.208919851715</v>
+        <v>2006.793820398078</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1637.831303457666</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1279.565604850916</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y5" t="n">
-        <v>2304.808759915837</v>
+        <v>2393.393660462199</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1004.259565728817</v>
+        <v>749.2621142610717</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>749.2621142610717</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>749.2621142610717</v>
       </c>
       <c r="E7" t="n">
         <v>624.6477645191717</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>1004.259565728817</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y7" t="n">
-        <v>1004.259565728817</v>
+        <v>749.2621142610717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3240.43456173113</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3034.456814115352</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2780.926337389189</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2449.863450045618</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732314</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.5757713318899</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>698.5757713318899</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>698.5757713318899</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>550.6626777494968</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>403.7727302515864</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5752,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5835,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1465.957241786169</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1176.540071749208</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3006.417838136242</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>2837.481655208335</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>2687.365015795999</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309225</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309225</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024105</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.199968177789</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279772</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136242</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583948</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>3894.702467349166</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>3605.285297312205</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>3377.295746414188</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>3377.295746414188</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3160.164713532175</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C34" t="n">
-        <v>3160.164713532175</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>2504.882831151425</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X34" t="n">
         <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532175</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7022,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,19 +7189,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>628.553327152704</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,37 +7402,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1277.309669727408</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>145.3900508477912</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.3544845744807</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.992517862812974</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>31.93331737597597</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>84.77391660561898</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>106.0713126946632</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>253.7123957233514</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>66.51053793615023</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>148.5844758430716</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>13.3019692955595</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864856</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.116438016304727</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>131.6952193743937</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26439,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852723.0129991581</v>
+        <v>-852723.0129991585</v>
       </c>
       <c r="C6" t="n">
-        <v>476021.7327284337</v>
+        <v>476021.7327284338</v>
       </c>
       <c r="D6" t="n">
-        <v>476021.7327284339</v>
+        <v>476021.732728434</v>
       </c>
       <c r="E6" t="n">
-        <v>225144.2010361374</v>
+        <v>225144.2010361371</v>
       </c>
       <c r="F6" t="n">
+        <v>550556.6628434927</v>
+      </c>
+      <c r="G6" t="n">
+        <v>550556.6628434927</v>
+      </c>
+      <c r="H6" t="n">
+        <v>550556.6628434926</v>
+      </c>
+      <c r="I6" t="n">
+        <v>550556.6628434927</v>
+      </c>
+      <c r="J6" t="n">
+        <v>333025.4604462151</v>
+      </c>
+      <c r="K6" t="n">
         <v>550556.6628434929</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
         <v>550556.6628434928</v>
       </c>
-      <c r="H6" t="n">
+      <c r="M6" t="n">
+        <v>465501.6349079811</v>
+      </c>
+      <c r="N6" t="n">
         <v>550556.6628434928</v>
-      </c>
-      <c r="I6" t="n">
-        <v>550556.6628434926</v>
-      </c>
-      <c r="J6" t="n">
-        <v>333025.4604462154</v>
-      </c>
-      <c r="K6" t="n">
-        <v>550556.6628434928</v>
-      </c>
-      <c r="L6" t="n">
-        <v>550556.6628434925</v>
-      </c>
-      <c r="M6" t="n">
-        <v>465501.6349079806</v>
-      </c>
-      <c r="N6" t="n">
-        <v>550556.6628434927</v>
       </c>
       <c r="O6" t="n">
         <v>550556.6628434928</v>
       </c>
       <c r="P6" t="n">
-        <v>550556.6628434928</v>
+        <v>550556.6628434927</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>291.4251788534392</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>103.9410442028223</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>181.952772188038</v>
+        <v>51.12460430110283</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>68.00589201334412</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>334.9898820931282</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27675,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>86.48057356586074</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23.06575640208817</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>24.86821450891577</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.9868520317691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>73.24523590197821</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>25.66723061830675</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>402.2342772868842</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,13 +32557,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>314.1059622342723</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34381,13 +34383,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>176.2645232599133</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2805961.603599537</v>
+        <v>2801948.993585546</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>63.25786276724374</v>
+        <v>267.5530630264154</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>51.06561173382013</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>168.4243449750664</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>46.94048797913361</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>96.42179912612161</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.368206244481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>251.2852794514161</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>84.31954727926006</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>226.4704127055213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.043911798777973</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417132</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4774956074566125</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>283.530480473778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2292,22 +2292,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>189.4027099929735</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>220.204325947852</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>167.363726718209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>32.81060261323961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>100.7362831624776</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>142.3046100066265</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>282.8547581679341</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204827</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204827</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1565.483062930404</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.483062930404</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.798574724517</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2006.793820398078</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C5" t="n">
-        <v>1637.831303457666</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.565604850916</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3228.210064916118</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2974.679588189954</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993394</v>
+        <v>2643.616700846384</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.859418723279</v>
+        <v>2290.848045576269</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.393660462199</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="Y5" t="n">
-        <v>2393.393660462199</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>749.2621142610717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>749.2621142610717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>749.2621142610717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046018</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>970.0546934046018</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>749.2621142610717</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1475.375487024176</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1117.109788417425</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>731.321535819181</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>320.3356310295734</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3240.43456173113</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3034.456814115352</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2780.926337389189</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.863450045618</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2097.094794775503</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.094794775503</v>
+        <v>2621.077176004521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1319.603231339825</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1319.603231339825</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,43 +5020,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032925</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7557007032925</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.7311804011399</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1330.161775272927</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1102.17222437491</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>881.3796452313796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V22" t="n">
-        <v>1465.957241786169</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W22" t="n">
-        <v>1176.540071749208</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X22" t="n">
-        <v>948.5505208511906</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511906</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029407</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171305</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473703</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558406</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630499</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630499</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630499</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151425</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,19 +7177,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>945.402603663004</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>776.4664207350971</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>776.4664207350971</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>628.553327152704</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7830,13 +7830,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>145.3900508477912</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.3544845744807</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.3204386478853</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>2.992517862812974</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>28.00274033431472</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>31.93331737597597</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>84.77391660561898</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>253.7123957233514</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51053793615023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>3.116438016304727</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>3.329716221310093</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>10.85445046951733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380338</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="F2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852723.0129991585</v>
+        <v>-852723.0129991586</v>
       </c>
       <c r="C6" t="n">
-        <v>476021.7327284338</v>
+        <v>476021.7327284343</v>
       </c>
       <c r="D6" t="n">
         <v>476021.732728434</v>
       </c>
       <c r="E6" t="n">
-        <v>225144.2010361371</v>
+        <v>224796.8217817808</v>
       </c>
       <c r="F6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891361</v>
       </c>
       <c r="G6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891362</v>
       </c>
       <c r="H6" t="n">
-        <v>550556.6628434926</v>
+        <v>550209.2835891359</v>
       </c>
       <c r="I6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891362</v>
       </c>
       <c r="J6" t="n">
-        <v>333025.4604462151</v>
+        <v>332678.0811918585</v>
       </c>
       <c r="K6" t="n">
-        <v>550556.6628434929</v>
+        <v>550209.2835891359</v>
       </c>
       <c r="L6" t="n">
-        <v>550556.6628434928</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="M6" t="n">
-        <v>465501.6349079811</v>
+        <v>465154.2556536241</v>
       </c>
       <c r="N6" t="n">
-        <v>550556.6628434928</v>
+        <v>550209.2835891359</v>
       </c>
       <c r="O6" t="n">
-        <v>550556.6628434928</v>
+        <v>550209.2835891357</v>
       </c>
       <c r="P6" t="n">
-        <v>550556.6628434927</v>
+        <v>550209.2835891359</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>291.4251788534392</v>
+        <v>87.12997859426758</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27587,10 +27587,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>51.12460430110283</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>334.9898820931282</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>107.4961710134985</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.06575640208817</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>31.98681829672469</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>159.6364462020373</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>24.86821450891577</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>25.66723061830675</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>705.9257335045844</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>379.8551982710414</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>314.1059622342723</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34383,13 +34383,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>574.5840214212511</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,16 +35734,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>242.0137592966824</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>176.2645232599133</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801948.993585546</v>
+        <v>2803709.52388833</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>267.5530630264154</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>232.8521789952017</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>51.06561173382013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>158.0933671656953</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>97.59828627833514</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>96.42179912612161</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>251.2852794514161</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>37.59617708813221</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039625</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673009</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417132</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833856</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2292,19 +2292,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>189.4027099929735</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>82.52140782073276</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>201.0757400165027</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>282.8547581679341</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495403</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C2" t="n">
-        <v>758.7856865549918</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D2" t="n">
-        <v>488.5300673363904</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="F2" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>897.4104964852691</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>511.6222438870248</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>504.6767431378213</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3228.210064916118</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2974.679588189954</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2643.616700846384</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2290.848045576269</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>1917.382287315189</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1917.382287315189</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024176</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>731.321535819181</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295734</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265601</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004521</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>104.4880528848422</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>139.2347658407936</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565524</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998291</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2005.746676807796</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1716.671450151994</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V22" t="n">
-        <v>1461.986961946107</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1172.569791909146</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.569791909146</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.777212765616</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,16 +6363,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
         <v>402.7245934908939</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1894.106123115829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7830,13 +7830,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194322</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.3204386478853</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>28.00274033431472</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>203.6630665685114</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>24.63391537253446</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>3.329716221310093</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760029.3719435267</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760029.3719435268</v>
+        <v>760029.3719435266</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.337085813811803e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26441,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852723.0129991586</v>
+        <v>-852723.0129991588</v>
       </c>
       <c r="C6" t="n">
         <v>476021.7327284343</v>
       </c>
       <c r="D6" t="n">
-        <v>476021.732728434</v>
+        <v>476021.7327284343</v>
       </c>
       <c r="E6" t="n">
-        <v>224796.8217817808</v>
+        <v>225109.4631107023</v>
       </c>
       <c r="F6" t="n">
-        <v>550209.2835891361</v>
+        <v>550521.9249180568</v>
       </c>
       <c r="G6" t="n">
-        <v>550209.2835891362</v>
+        <v>550521.9249180573</v>
       </c>
       <c r="H6" t="n">
-        <v>550209.2835891359</v>
+        <v>550521.924918057</v>
       </c>
       <c r="I6" t="n">
-        <v>550209.2835891362</v>
+        <v>550521.924918057</v>
       </c>
       <c r="J6" t="n">
-        <v>332678.0811918585</v>
+        <v>332990.7225207794</v>
       </c>
       <c r="K6" t="n">
-        <v>550209.2835891359</v>
+        <v>550521.9249180573</v>
       </c>
       <c r="L6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.9249180573</v>
       </c>
       <c r="M6" t="n">
-        <v>465154.2556536241</v>
+        <v>465466.8969825454</v>
       </c>
       <c r="N6" t="n">
-        <v>550209.2835891359</v>
+        <v>550521.924918057</v>
       </c>
       <c r="O6" t="n">
-        <v>550209.2835891357</v>
+        <v>550521.9249180574</v>
       </c>
       <c r="P6" t="n">
-        <v>550209.2835891359</v>
+        <v>550521.924918057</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.306832697355</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>87.12997859426758</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>174.0238667465097</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>313.3234393751183</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>107.4961710134985</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>31.98681829672469</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>159.6364462020373</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.429631170896</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944184</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>183.7183104822597</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860883009</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673334</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>45.87687150790074</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496757</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531504</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
